--- a/data/trans_bre/P21D_3_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Dificultad-trans_bre.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.580161620940264</v>
+        <v>-1.744812894423517</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4087180420122261</v>
+        <v>0.4131478855401929</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8370715210847847</v>
+        <v>0.789288950113086</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8410505904167025</v>
+        <v>0.6984220219711792</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.09523967937044228</v>
+        <v>-0.07545916276854656</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2532943256894172</v>
+        <v>0.2439785134078456</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
